--- a/氣象性能評估工具V2/data/obs/backup/2016-06-18_t2_obs.xlsx
+++ b/氣象性能評估工具V2/data/obs/backup/2016-06-18_t2_obs.xlsx
@@ -91,7 +91,7 @@
     <t>恆春</t>
   </si>
   <si>
-    <t>2016-06-18 00:00:00</t>
+    <t>2016-06-18-00</t>
   </si>
   <si>
     <t>20.7</t>
@@ -160,7 +160,7 @@
     <t>26.6</t>
   </si>
   <si>
-    <t>2016-06-18 01:00:00</t>
+    <t>2016-06-18-01</t>
   </si>
   <si>
     <t>20.0</t>
@@ -202,7 +202,7 @@
     <t>26.7</t>
   </si>
   <si>
-    <t>2016-06-18 02:00:00</t>
+    <t>2016-06-18-02</t>
   </si>
   <si>
     <t>19.7</t>
@@ -241,7 +241,7 @@
     <t>28.1</t>
   </si>
   <si>
-    <t>2016-06-18 03:00:00</t>
+    <t>2016-06-18-03</t>
   </si>
   <si>
     <t>19.4</t>
@@ -259,7 +259,7 @@
     <t>27.5</t>
   </si>
   <si>
-    <t>2016-06-18 04:00:00</t>
+    <t>2016-06-18-04</t>
   </si>
   <si>
     <t>20.1</t>
@@ -283,7 +283,7 @@
     <t>27.2</t>
   </si>
   <si>
-    <t>2016-06-18 05:00:00</t>
+    <t>2016-06-18-05</t>
   </si>
   <si>
     <t>20.3</t>
@@ -304,7 +304,7 @@
     <t>27.6</t>
   </si>
   <si>
-    <t>2016-06-18 06:00:00</t>
+    <t>2016-06-18-06</t>
   </si>
   <si>
     <t>22.8</t>
@@ -334,7 +334,7 @@
     <t>29.7</t>
   </si>
   <si>
-    <t>2016-06-18 07:00:00</t>
+    <t>2016-06-18-07</t>
   </si>
   <si>
     <t>24.2</t>
@@ -379,7 +379,7 @@
     <t>30.6</t>
   </si>
   <si>
-    <t>2016-06-18 08:00:00</t>
+    <t>2016-06-18-08</t>
   </si>
   <si>
     <t>24.6</t>
@@ -421,7 +421,7 @@
     <t>31.4</t>
   </si>
   <si>
-    <t>2016-06-18 09:00:00</t>
+    <t>2016-06-18-09</t>
   </si>
   <si>
     <t>30.7</t>
@@ -460,7 +460,7 @@
     <t>31.9</t>
   </si>
   <si>
-    <t>2016-06-18 10:00:00</t>
+    <t>2016-06-18-10</t>
   </si>
   <si>
     <t>33.5</t>
@@ -487,7 +487,7 @@
     <t>32.8</t>
   </si>
   <si>
-    <t>2016-06-18 11:00:00</t>
+    <t>2016-06-18-11</t>
   </si>
   <si>
     <t>32.6</t>
@@ -511,7 +511,7 @@
     <t>33.6</t>
   </si>
   <si>
-    <t>2016-06-18 12:00:00</t>
+    <t>2016-06-18-12</t>
   </si>
   <si>
     <t>30.5</t>
@@ -529,7 +529,7 @@
     <t>33.1</t>
   </si>
   <si>
-    <t>2016-06-18 13:00:00</t>
+    <t>2016-06-18-13</t>
   </si>
   <si>
     <t>31.3</t>
@@ -544,7 +544,7 @@
     <t>33.3</t>
   </si>
   <si>
-    <t>2016-06-18 14:00:00</t>
+    <t>2016-06-18-14</t>
   </si>
   <si>
     <t>16.5</t>
@@ -553,7 +553,7 @@
     <t>12.1</t>
   </si>
   <si>
-    <t>2016-06-18 15:00:00</t>
+    <t>2016-06-18-15</t>
   </si>
   <si>
     <t>22.6</t>
@@ -571,7 +571,7 @@
     <t>10.8</t>
   </si>
   <si>
-    <t>2016-06-18 16:00:00</t>
+    <t>2016-06-18-16</t>
   </si>
   <si>
     <t>23.2</t>
@@ -586,7 +586,7 @@
     <t>7.9</t>
   </si>
   <si>
-    <t>2016-06-18 17:00:00</t>
+    <t>2016-06-18-17</t>
   </si>
   <si>
     <t>26.1</t>
@@ -601,7 +601,7 @@
     <t>7.2</t>
   </si>
   <si>
-    <t>2016-06-18 18:00:00</t>
+    <t>2016-06-18-18</t>
   </si>
   <si>
     <t>21.1</t>
@@ -616,7 +616,7 @@
     <t>6.0</t>
   </si>
   <si>
-    <t>2016-06-18 19:00:00</t>
+    <t>2016-06-18-19</t>
   </si>
   <si>
     <t>15.0</t>
@@ -625,7 +625,7 @@
     <t>6.5</t>
   </si>
   <si>
-    <t>2016-06-18 20:00:00</t>
+    <t>2016-06-18-20</t>
   </si>
   <si>
     <t>21.9</t>
@@ -634,7 +634,7 @@
     <t>14.4</t>
   </si>
   <si>
-    <t>2016-06-18 21:00:00</t>
+    <t>2016-06-18-21</t>
   </si>
   <si>
     <t>20.8</t>
@@ -646,7 +646,7 @@
     <t>6.9</t>
   </si>
   <si>
-    <t>2016-06-18 22:00:00</t>
+    <t>2016-06-18-22</t>
   </si>
   <si>
     <t>21.3</t>
@@ -655,7 +655,7 @@
     <t>7.0</t>
   </si>
   <si>
-    <t>2016-06-18 23:00:00</t>
+    <t>2016-06-18-23</t>
   </si>
   <si>
     <t>24.1</t>
